--- a/data/trans_dic/P07B_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.0704065326327868</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05986727741526289</v>
+        <v>0.05986727741526288</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06545240120475486</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04887165966413803</v>
+        <v>0.04880481147967538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04314214523017196</v>
+        <v>0.0432750279625703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05141049097178657</v>
+        <v>0.05097598909129358</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09894029873374682</v>
+        <v>0.1024147527101021</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08148224269705459</v>
+        <v>0.07978108460199047</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08379697896780021</v>
+        <v>0.08325452626874019</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0383693668485358</v>
+        <v>0.03836936684853579</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.09105937594577611</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02428248851357556</v>
+        <v>0.02311424458898598</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07043429301917428</v>
+        <v>0.06818503684162015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04867228602625114</v>
+        <v>0.0487366265887287</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06060107797497775</v>
+        <v>0.05974379203134567</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1215704088779828</v>
+        <v>0.1177721058247832</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07962581090791489</v>
+        <v>0.07872612957614131</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04255579016714531</v>
+        <v>0.042936228926569</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07627911235841861</v>
+        <v>0.07774356978868464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05703697649955886</v>
+        <v>0.05748795511970935</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09000705259240252</v>
+        <v>0.09283833434236263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1454132961392481</v>
+        <v>0.1466608266993122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09641748673481418</v>
+        <v>0.09735998164031054</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06415156880964991</v>
+        <v>0.06415156880964992</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07970270937374023</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07087131572591389</v>
+        <v>0.0708713157259139</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05052123808032796</v>
+        <v>0.05057118074303656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06465820426233253</v>
+        <v>0.06612689082468524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06037879074899389</v>
+        <v>0.0610928212269208</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07935851974753855</v>
+        <v>0.08217632468145598</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09435502971001676</v>
+        <v>0.09675036846150135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08233441093405286</v>
+        <v>0.0815431687112229</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.07689999326964356</v>
+        <v>0.07689999326964354</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1270956132167621</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1067145671600929</v>
+        <v>0.1067145671600928</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05638665103515248</v>
+        <v>0.05651037353344938</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1100556714017117</v>
+        <v>0.1104800963264378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09206350144779429</v>
+        <v>0.09393415566713392</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.103910122970935</v>
+        <v>0.1018928785948216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1450021852990201</v>
+        <v>0.1461699991483636</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1209531401821894</v>
+        <v>0.1228667902776162</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.04410896253097433</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1058906896209108</v>
+        <v>0.1058906896209109</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.09233893594707018</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02235390227201779</v>
+        <v>0.02128653430513765</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08797486897277132</v>
+        <v>0.08796931573479233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07857710016266682</v>
+        <v>0.07705509721159835</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08205617698285327</v>
+        <v>0.08231424415447633</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1255771223031565</v>
+        <v>0.1266829030355904</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1082709603124453</v>
+        <v>0.10961148676902</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.06216020635835046</v>
+        <v>0.06216020635835047</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09665233205558565</v>
+        <v>0.09665233205558567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.07987633467383977</v>
+        <v>0.0798763346738398</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05341767207216981</v>
+        <v>0.05410642183704065</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08925885164811213</v>
+        <v>0.0892027135513012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07445702908454339</v>
+        <v>0.07447312241773724</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07172837239296283</v>
+        <v>0.07155892264928551</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1053999115671457</v>
+        <v>0.1056499026940981</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08632036242891311</v>
+        <v>0.08626058298957182</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26910</v>
+        <v>26873</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21071</v>
+        <v>21136</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53417</v>
+        <v>52966</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54478</v>
+        <v>56391</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39797</v>
+        <v>38966</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87067</v>
+        <v>86504</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11734</v>
+        <v>11169</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29804</v>
+        <v>28852</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44114</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29283</v>
+        <v>28869</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>51442</v>
+        <v>49834</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72169</v>
+        <v>71354</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20070</v>
+        <v>20249</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14302</v>
+        <v>14577</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37594</v>
+        <v>37891</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42448</v>
+        <v>43784</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27265</v>
+        <v>27498</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63550</v>
+        <v>64171</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57182</v>
+        <v>57239</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55684</v>
+        <v>56949</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>120338</v>
+        <v>121761</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89821</v>
+        <v>93011</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>81260</v>
+        <v>83322</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164097</v>
+        <v>162520</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32026</v>
+        <v>32096</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91440</v>
+        <v>91792</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>128780</v>
+        <v>131396</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59017</v>
+        <v>57871</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>120475</v>
+        <v>121445</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>169191</v>
+        <v>171868</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5303</v>
+        <v>5050</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74276</v>
+        <v>74271</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>84982</v>
+        <v>83336</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19466</v>
+        <v>19527</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>106022</v>
+        <v>106956</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>117096</v>
+        <v>118546</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>183889</v>
+        <v>186260</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>324491</v>
+        <v>324287</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>526997</v>
+        <v>527111</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>246923</v>
+        <v>246340</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>383170</v>
+        <v>384079</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>610964</v>
+        <v>610541</v>
       </c>
     </row>
     <row r="32">
